--- a/teaching/traditional_assets/database/data/denmark/denmark_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0274</v>
+        <v>0.00379</v>
       </c>
       <c r="E2">
-        <v>0.0617</v>
+        <v>0.0394</v>
       </c>
       <c r="F2">
-        <v>-0.0437</v>
+        <v>-0.007800000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01200738514678614</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009781251378200252</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2443.7</v>
+        <v>1774</v>
       </c>
       <c r="L2">
-        <v>0.2779174106381285</v>
+        <v>0.2064975730133048</v>
       </c>
       <c r="M2">
-        <v>1976.6406</v>
+        <v>1669.488</v>
       </c>
       <c r="N2">
-        <v>0.1072896750871175</v>
+        <v>0.0880527001439866</v>
       </c>
       <c r="O2">
-        <v>0.808872038302574</v>
+        <v>0.941086809470124</v>
       </c>
       <c r="P2">
-        <v>1354.6006</v>
+        <v>168.62</v>
       </c>
       <c r="Q2">
-        <v>0.07352609181801405</v>
+        <v>0.008893413009425057</v>
       </c>
       <c r="R2">
-        <v>0.5543236076441462</v>
+        <v>0.09505073280721534</v>
       </c>
       <c r="S2">
-        <v>622.04</v>
+        <v>1500.868</v>
       </c>
       <c r="T2">
-        <v>0.3146955496107891</v>
+        <v>0.8989989745359056</v>
       </c>
       <c r="U2">
-        <v>25558.4</v>
+        <v>19065.1</v>
       </c>
       <c r="V2">
-        <v>1.387279220990697</v>
+        <v>1.005537945474971</v>
       </c>
       <c r="W2">
-        <v>0.07616298521769496</v>
+        <v>0.07400158995881501</v>
       </c>
       <c r="X2">
-        <v>0.07652751395372814</v>
+        <v>0.06262870969906026</v>
       </c>
       <c r="Y2">
-        <v>-0.0003645287360331817</v>
+        <v>0.01137288025975475</v>
       </c>
       <c r="Z2">
-        <v>0.02872432230084342</v>
+        <v>0.02946901977922161</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03968756089329334</v>
+        <v>0.03233898268077744</v>
       </c>
       <c r="AC2">
-        <v>-0.03979429690678399</v>
+        <v>-0.03233898268077744</v>
       </c>
       <c r="AD2">
-        <v>344799.1</v>
+        <v>295326.9</v>
       </c>
       <c r="AE2">
-        <v>178.701315714121</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>344977.8013157141</v>
+        <v>295326.9</v>
       </c>
       <c r="AG2">
-        <v>319419.4013157141</v>
+        <v>276261.8</v>
       </c>
       <c r="AH2">
-        <v>0.9493028643458055</v>
+        <v>0.9396726558845896</v>
       </c>
       <c r="AI2">
-        <v>0.9149643700870747</v>
+        <v>0.8939758839202524</v>
       </c>
       <c r="AJ2">
-        <v>0.9454675371851912</v>
+        <v>0.9357767834974303</v>
       </c>
       <c r="AK2">
-        <v>0.9087808967308018</v>
+        <v>0.887482327407721</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>2439.846447778092</v>
-      </c>
-      <c r="AP2">
-        <v>2260.256165551331</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sparekassen Sjælland-Fyn A/S (CPSE:SPKSJF)</t>
+          <t>Lån &amp; Spar Bank A/S (CPSE:LASP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,6 +715,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.108</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -734,85 +734,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>29.9</v>
+        <v>24.9</v>
       </c>
       <c r="L3">
-        <v>0.1950424005218526</v>
+        <v>0.1809593023255814</v>
       </c>
       <c r="M3">
-        <v>88.5</v>
+        <v>22.06</v>
       </c>
       <c r="N3">
-        <v>0.3798283261802575</v>
+        <v>0.07940964722822175</v>
       </c>
       <c r="O3">
-        <v>2.959866220735786</v>
+        <v>0.8859437751004018</v>
       </c>
       <c r="P3">
-        <v>17.8</v>
+        <v>5.46</v>
       </c>
       <c r="Q3">
-        <v>0.07639484978540773</v>
+        <v>0.01965442764578833</v>
       </c>
       <c r="R3">
-        <v>0.5953177257525084</v>
+        <v>0.219277108433735</v>
       </c>
       <c r="S3">
-        <v>70.7</v>
+        <v>16.6</v>
       </c>
       <c r="T3">
-        <v>0.7988700564971751</v>
+        <v>0.7524932003626473</v>
       </c>
       <c r="U3">
-        <v>275.3</v>
+        <v>1267.7</v>
       </c>
       <c r="V3">
-        <v>1.181545064377682</v>
+        <v>4.563354931605471</v>
       </c>
       <c r="W3">
-        <v>0.0534788052226793</v>
+        <v>0.09067734887108521</v>
       </c>
       <c r="X3">
-        <v>0.05263472100414013</v>
+        <v>0.03426060826462669</v>
       </c>
       <c r="Y3">
-        <v>0.0008440842185391748</v>
+        <v>0.05641674060645852</v>
       </c>
       <c r="Z3">
-        <v>0.4820754716981133</v>
+        <v>-0.1844504021447721</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.03931063010905809</v>
+        <v>0.03200481174797615</v>
       </c>
       <c r="AC3">
-        <v>-0.03931063010905809</v>
+        <v>-0.03200481174797615</v>
       </c>
       <c r="AD3">
-        <v>179.3</v>
+        <v>36.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>179.3</v>
+        <v>36.8</v>
       </c>
       <c r="AG3">
-        <v>-96</v>
+        <v>-1230.9</v>
       </c>
       <c r="AH3">
-        <v>0.4348775163715741</v>
+        <v>0.1169739351557533</v>
       </c>
       <c r="AI3">
-        <v>0.2781138514037537</v>
+        <v>0.1041607698839513</v>
       </c>
       <c r="AJ3">
-        <v>-0.7007299270072993</v>
+        <v>1.291469940195153</v>
       </c>
       <c r="AK3">
-        <v>-0.2598808879263671</v>
+        <v>1.346128608923884</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Danske Bank A/S (CPSE:DANSKE)</t>
+          <t>P/F BankNordik (CPSE:BNORDIK CSE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,13 +838,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.021</v>
-      </c>
-      <c r="E4">
-        <v>-0.00797</v>
-      </c>
-      <c r="F4">
-        <v>-0.0437</v>
+        <v>0.00094</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,103 +847,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01552850430979991</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01219181124021136</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1949.7</v>
+        <v>27</v>
       </c>
       <c r="L4">
-        <v>0.2917053173344505</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="M4">
-        <v>1210.5</v>
+        <v>1.118</v>
       </c>
       <c r="N4">
-        <v>0.08758030908143774</v>
+        <v>0.004717299578059072</v>
       </c>
       <c r="O4">
-        <v>0.6208647484228342</v>
+        <v>0.04140740740740741</v>
       </c>
       <c r="P4">
-        <v>1169.5</v>
+        <v>1.06</v>
       </c>
       <c r="Q4">
-        <v>0.08461393760490826</v>
+        <v>0.004472573839662448</v>
       </c>
       <c r="R4">
-        <v>0.5998358721854644</v>
+        <v>0.03925925925925926</v>
       </c>
       <c r="S4">
-        <v>41</v>
+        <v>0.05800000000000005</v>
       </c>
       <c r="T4">
-        <v>0.03387030152829409</v>
+        <v>0.05187835420393564</v>
       </c>
       <c r="U4">
-        <v>18074.4</v>
+        <v>220.6</v>
       </c>
       <c r="V4">
-        <v>1.307692307692308</v>
+        <v>0.9308016877637131</v>
       </c>
       <c r="W4">
-        <v>0.0855334158090074</v>
+        <v>0.08353960396039604</v>
       </c>
       <c r="X4">
-        <v>0.3622851581240267</v>
+        <v>0.03511720174162086</v>
       </c>
       <c r="Y4">
-        <v>-0.2767517423150193</v>
+        <v>0.04842240221877518</v>
       </c>
       <c r="Z4">
-        <v>0.02800702676596667</v>
+        <v>0.4035562427522226</v>
       </c>
       <c r="AA4">
-        <v>0.0003414563837302129</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03968943315299078</v>
+        <v>0.03203017939537029</v>
       </c>
       <c r="AC4">
-        <v>-0.03934797676926057</v>
+        <v>-0.03203017939537029</v>
       </c>
       <c r="AD4">
-        <v>273126.7</v>
+        <v>42.9</v>
       </c>
       <c r="AE4">
-        <v>125.052914470797</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>273251.7529144708</v>
+        <v>42.9</v>
       </c>
       <c r="AG4">
-        <v>255177.3529144708</v>
+        <v>-177.7</v>
       </c>
       <c r="AH4">
-        <v>0.9518534205293588</v>
+        <v>0.1532690246516613</v>
       </c>
       <c r="AI4">
-        <v>0.9187593322798302</v>
+        <v>0.1025824964131994</v>
       </c>
       <c r="AJ4">
-        <v>0.9486183873570889</v>
+        <v>-2.99662731871838</v>
       </c>
       <c r="AK4">
-        <v>0.9135027302878049</v>
+        <v>-0.8992914979757083</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>2120.548913043478</v>
-      </c>
-      <c r="AP4">
-        <v>1981.190628217941</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jyske Bank A/S (CPSE:JYSK)</t>
+          <t>Sparekassen Sjælland-Fyn A/S (CPSE:SPKSJF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -968,12 +956,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0274</v>
-      </c>
-      <c r="E5">
-        <v>-0.122</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -981,103 +963,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002195581869481693</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00177070976274754</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>288.4</v>
+        <v>35.5</v>
       </c>
       <c r="L5">
-        <v>0.2478301967861132</v>
+        <v>0.2156743620899149</v>
       </c>
       <c r="M5">
-        <v>494.8606</v>
+        <v>11.31</v>
       </c>
       <c r="N5">
-        <v>0.1809031621275818</v>
+        <v>0.04416243654822334</v>
       </c>
       <c r="O5">
-        <v>1.715882801664355</v>
+        <v>0.3185915492957746</v>
       </c>
       <c r="P5">
-        <v>66.9606</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.02447837689636264</v>
+        <v>0.03201874267864115</v>
       </c>
       <c r="R5">
-        <v>0.2321796116504855</v>
+        <v>0.2309859154929577</v>
       </c>
       <c r="S5">
-        <v>427.9</v>
+        <v>3.109999999999999</v>
       </c>
       <c r="T5">
-        <v>0.8646879545471997</v>
+        <v>0.2749778956675508</v>
       </c>
       <c r="U5">
-        <v>5719.1</v>
+        <v>468.6</v>
       </c>
       <c r="V5">
-        <v>2.090696399195759</v>
+        <v>1.829754002342835</v>
       </c>
       <c r="W5">
-        <v>0.05375281904087376</v>
+        <v>0.07627847013321874</v>
       </c>
       <c r="X5">
-        <v>0.438169391481121</v>
+        <v>0.04743994499157295</v>
       </c>
       <c r="Y5">
-        <v>-0.3844165724402472</v>
+        <v>0.0288385251416458</v>
       </c>
       <c r="Z5">
-        <v>0.0183394066739964</v>
+        <v>0.4455874390904168</v>
       </c>
       <c r="AA5">
-        <v>3.24737664406428e-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03968568863359589</v>
+        <v>0.03225008334166182</v>
       </c>
       <c r="AC5">
-        <v>-0.03965321486715524</v>
+        <v>-0.03225008334166182</v>
       </c>
       <c r="AD5">
-        <v>66775.7</v>
+        <v>225.2</v>
       </c>
       <c r="AE5">
-        <v>42.22500689242077</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>66817.92500689242</v>
+        <v>225.2</v>
       </c>
       <c r="AG5">
-        <v>61098.82500689242</v>
+        <v>-243.4</v>
       </c>
       <c r="AH5">
-        <v>0.9606705205426056</v>
+        <v>0.4678994390193226</v>
       </c>
       <c r="AI5">
-        <v>0.9285358187769275</v>
+        <v>0.2997870074547391</v>
       </c>
       <c r="AJ5">
-        <v>0.9571468798376949</v>
+        <v>-19.16535433070868</v>
       </c>
       <c r="AK5">
-        <v>0.9223658005626402</v>
+        <v>-0.8612880396319889</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>6070.518181818182</v>
-      </c>
-      <c r="AP5">
-        <v>5554.438636990219</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lån &amp; Spar Bank A/S (CPSE:LASP)</t>
+          <t>Sydbank A/S (CPSE:SYDB)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,10 +1073,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0507</v>
+        <v>0.00379</v>
       </c>
       <c r="E6">
-        <v>0.0617</v>
+        <v>-0.0617</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,85 +1091,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>24</v>
+        <v>121.1</v>
       </c>
       <c r="L6">
-        <v>0.2005012531328321</v>
+        <v>0.1868250539956803</v>
       </c>
       <c r="M6">
-        <v>7.640000000000001</v>
+        <v>251.6</v>
       </c>
       <c r="N6">
-        <v>0.03287435456110155</v>
+        <v>0.1926493108728943</v>
       </c>
       <c r="O6">
-        <v>0.3183333333333334</v>
+        <v>2.077621800165153</v>
       </c>
       <c r="P6">
-        <v>5.04</v>
+        <v>1.1</v>
       </c>
       <c r="Q6">
-        <v>0.02168674698795181</v>
+        <v>0.0008422664624808577</v>
       </c>
       <c r="R6">
-        <v>0.21</v>
+        <v>0.009083402146985962</v>
       </c>
       <c r="S6">
-        <v>2.600000000000001</v>
+        <v>250.5</v>
       </c>
       <c r="T6">
-        <v>0.3403141361256545</v>
+        <v>0.9956279809220986</v>
       </c>
       <c r="U6">
-        <v>1043</v>
+        <v>378.9</v>
       </c>
       <c r="V6">
-        <v>4.487951807228916</v>
+        <v>0.2901225114854518</v>
       </c>
       <c r="W6">
-        <v>0.1091405184174625</v>
+        <v>0.07172470978441127</v>
       </c>
       <c r="X6">
-        <v>0.04166447571233203</v>
+        <v>0.07781747440654757</v>
       </c>
       <c r="Y6">
-        <v>0.06747604270513045</v>
+        <v>-0.006092764622136301</v>
       </c>
       <c r="Z6">
-        <v>-0.2310810810810811</v>
+        <v>0.1080099311815773</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03993537894641273</v>
+        <v>0.03242788201989306</v>
       </c>
       <c r="AC6">
-        <v>-0.03993537894641273</v>
+        <v>-0.03242788201989306</v>
       </c>
       <c r="AD6">
-        <v>22.4</v>
+        <v>3396.7</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>22.4</v>
+        <v>3396.7</v>
       </c>
       <c r="AG6">
-        <v>-1020.6</v>
+        <v>3017.8</v>
       </c>
       <c r="AH6">
-        <v>0.08791208791208791</v>
+        <v>0.7222871967167798</v>
       </c>
       <c r="AI6">
-        <v>0.07542087542087542</v>
+        <v>0.6372436823443334</v>
       </c>
       <c r="AJ6">
-        <v>1.294849023090586</v>
+        <v>0.697950876543781</v>
       </c>
       <c r="AK6">
-        <v>1.368096514745308</v>
+        <v>0.6094841862907461</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1210,7 +1186,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P/F BankNordik (CPSE:BNORDIK CSE)</t>
+          <t>Danske Bank A/S (CPSE:DANSKE)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1219,10 +1195,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.00486</v>
+        <v>-0.0257</v>
       </c>
       <c r="E7">
-        <v>0.144</v>
+        <v>0.0365</v>
+      </c>
+      <c r="F7">
+        <v>-0.007800000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1231,103 +1210,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.007268810553047895</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.005829669613090999</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>27.9</v>
+        <v>1290.4</v>
       </c>
       <c r="L7">
-        <v>0.2652091254752851</v>
+        <v>0.2039964588339446</v>
       </c>
       <c r="M7">
-        <v>12.04</v>
+        <v>1009.9</v>
       </c>
       <c r="N7">
-        <v>0.07722899294419498</v>
+        <v>0.071606338852058</v>
       </c>
       <c r="O7">
-        <v>0.4315412186379928</v>
+        <v>0.7826255424674519</v>
       </c>
       <c r="P7">
-        <v>10.2</v>
+        <v>126.5</v>
       </c>
       <c r="Q7">
-        <v>0.06542655548428479</v>
+        <v>0.008969404757684263</v>
       </c>
       <c r="R7">
-        <v>0.3655913978494624</v>
+        <v>0.09803161810291382</v>
       </c>
       <c r="S7">
-        <v>1.84</v>
+        <v>883.4</v>
       </c>
       <c r="T7">
-        <v>0.1528239202657807</v>
+        <v>0.8747400732745816</v>
       </c>
       <c r="U7">
-        <v>150.9</v>
+        <v>12855.5</v>
       </c>
       <c r="V7">
-        <v>0.967928159076331</v>
+        <v>0.9115113269755735</v>
       </c>
       <c r="W7">
-        <v>0.09189723320158101</v>
+        <v>0.05849660462206588</v>
       </c>
       <c r="X7">
-        <v>0.05031967996066763</v>
+        <v>0.3047858711372989</v>
       </c>
       <c r="Y7">
-        <v>0.04157755324091338</v>
+        <v>-0.246289266515233</v>
       </c>
       <c r="Z7">
-        <v>0.4390222427362233</v>
+        <v>0.02882603712623695</v>
       </c>
       <c r="AA7">
-        <v>-0.002559354627950421</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03939944723498834</v>
+        <v>0.03396779263179799</v>
       </c>
       <c r="AC7">
-        <v>-0.04195880186293876</v>
+        <v>-0.03396779263179799</v>
       </c>
       <c r="AD7">
-        <v>86.40000000000001</v>
+        <v>218084.8</v>
       </c>
       <c r="AE7">
-        <v>11.42339435090319</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>97.8233943509032</v>
+        <v>218084.8</v>
       </c>
       <c r="AG7">
-        <v>-53.07660564909681</v>
+        <v>205229.3</v>
       </c>
       <c r="AH7">
-        <v>0.3855513386976527</v>
+        <v>0.9392583519496891</v>
       </c>
       <c r="AI7">
-        <v>0.232346695370025</v>
+        <v>0.8926706671141929</v>
       </c>
       <c r="AJ7">
-        <v>-0.5161919228999911</v>
+        <v>0.9356981719104485</v>
       </c>
       <c r="AK7">
-        <v>-0.1964902217249194</v>
+        <v>0.8867092531664438</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>56.8421052631579</v>
-      </c>
-      <c r="AP7">
-        <v>-34.91881950598474</v>
       </c>
     </row>
     <row r="8">
@@ -1338,7 +1311,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sydbank A/S (CPSE:SYDB)</t>
+          <t>Jyske Bank A/S (CPSE:JYSK)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1347,10 +1320,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.03</v>
+        <v>0.006079999999999999</v>
       </c>
       <c r="E8">
-        <v>0.09210000000000002</v>
+        <v>0.0423</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1365,85 +1338,85 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>123.8</v>
+        <v>275.1</v>
       </c>
       <c r="L8">
-        <v>0.2182651622002821</v>
+        <v>0.2272614622057001</v>
       </c>
       <c r="M8">
-        <v>163.1</v>
+        <v>373.5</v>
       </c>
       <c r="N8">
-        <v>0.131004016064257</v>
+        <v>0.1343670180235277</v>
       </c>
       <c r="O8">
-        <v>1.317447495961228</v>
+        <v>1.357688113413304</v>
       </c>
       <c r="P8">
-        <v>85.09999999999999</v>
+        <v>26.3</v>
       </c>
       <c r="Q8">
-        <v>0.06835341365461847</v>
+        <v>0.009461452674749075</v>
       </c>
       <c r="R8">
-        <v>0.6873990306946688</v>
+        <v>0.0956015994183933</v>
       </c>
       <c r="S8">
-        <v>78</v>
+        <v>347.2</v>
       </c>
       <c r="T8">
-        <v>0.4782342121397916</v>
+        <v>0.9295850066934404</v>
       </c>
       <c r="U8">
-        <v>295.7</v>
+        <v>3873.8</v>
       </c>
       <c r="V8">
-        <v>0.2375100401606426</v>
+        <v>1.393603626290607</v>
       </c>
       <c r="W8">
-        <v>0.06679255462638252</v>
+        <v>0.05349434138373586</v>
       </c>
       <c r="X8">
-        <v>0.1004203069033162</v>
+        <v>0.4987699917984738</v>
       </c>
       <c r="Y8">
-        <v>-0.03362775227693365</v>
+        <v>-0.4452756504147379</v>
       </c>
       <c r="Z8">
-        <v>0.1427636546690159</v>
+        <v>0.01828571946488779</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04236064912099026</v>
+        <v>0.03402073675419914</v>
       </c>
       <c r="AC8">
-        <v>-0.04236064912099026</v>
+        <v>-0.03402073675419914</v>
       </c>
       <c r="AD8">
-        <v>4608.6</v>
+        <v>73540.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4608.6</v>
+        <v>73540.5</v>
       </c>
       <c r="AG8">
-        <v>4312.900000000001</v>
+        <v>69666.7</v>
       </c>
       <c r="AH8">
-        <v>0.7873103731037311</v>
+        <v>0.963578449742008</v>
       </c>
       <c r="AI8">
-        <v>0.7312336374454582</v>
+        <v>0.9286213967865928</v>
       </c>
       <c r="AJ8">
-        <v>0.77599453030821</v>
+        <v>0.9616309437045871</v>
       </c>
       <c r="AK8">
-        <v>0.7180029300126523</v>
+        <v>0.9249502784143262</v>
       </c>
       <c r="AL8">
         <v>0</v>
